--- a/output/ITAÚ_17419592000183.xlsx
+++ b/output/ITAÚ_17419592000183.xlsx
@@ -1417,10 +1417,10 @@
         <v>44165</v>
       </c>
       <c r="B94">
-        <v>1.991001</v>
+        <v>1.9923276</v>
       </c>
       <c r="C94">
-        <v>-0.004876734511581993</v>
+        <v>-0.004435367048315597</v>
       </c>
     </row>
   </sheetData>

--- a/output/ITAÚ_17419592000183.xlsx
+++ b/output/ITAÚ_17419592000183.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ITAÚ HEDGE PLUS MULTIMERCADO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1041 +383,762 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41364</v>
       </c>
       <c r="B2">
-        <v>0.01149719999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41394</v>
       </c>
       <c r="B3">
-        <v>0.01325789999999993</v>
-      </c>
-      <c r="C3">
         <v>0.001740686973725536</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41425</v>
       </c>
       <c r="B4">
-        <v>0.02770390000000011</v>
-      </c>
-      <c r="C4">
         <v>0.01425698235365358</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41455</v>
       </c>
       <c r="B5">
-        <v>0.04642970000000002</v>
-      </c>
-      <c r="C5">
         <v>0.0182210070429818</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41486</v>
       </c>
       <c r="B6">
-        <v>0.0546222999999999</v>
-      </c>
-      <c r="C6">
         <v>0.007829097358379444</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41517</v>
       </c>
       <c r="B7">
-        <v>0.0626739999999999</v>
-      </c>
-      <c r="C7">
         <v>0.007634676414485009</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41547</v>
       </c>
       <c r="B8">
-        <v>0.08286079999999996</v>
-      </c>
-      <c r="C8">
         <v>0.01899623026440844</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41578</v>
       </c>
       <c r="B9">
-        <v>0.0910765</v>
-      </c>
-      <c r="C9">
         <v>0.007587032423742812</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41608</v>
       </c>
       <c r="B10">
-        <v>0.1041463</v>
-      </c>
-      <c r="C10">
         <v>0.01197881175151339</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41639</v>
       </c>
       <c r="B11">
-        <v>0.126614</v>
-      </c>
-      <c r="C11">
         <v>0.02034848099386832</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41670</v>
       </c>
       <c r="B12">
-        <v>0.1416683000000001</v>
-      </c>
-      <c r="C12">
         <v>0.01336242936800014</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41698</v>
       </c>
       <c r="B13">
-        <v>0.1560904000000001</v>
-      </c>
-      <c r="C13">
         <v>0.01263247827762237</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41729</v>
       </c>
       <c r="B14">
-        <v>0.1688534000000002</v>
-      </c>
-      <c r="C14">
         <v>0.0110397941199063</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41759</v>
       </c>
       <c r="B15">
-        <v>0.1802645</v>
-      </c>
-      <c r="C15">
         <v>0.009762644314505131</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41790</v>
       </c>
       <c r="B16">
-        <v>0.1968007999999999</v>
-      </c>
-      <c r="C16">
         <v>0.01401067303134163</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41820</v>
       </c>
       <c r="B17">
-        <v>0.2080109999999999</v>
-      </c>
-      <c r="C17">
         <v>0.009366805236092901</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41851</v>
       </c>
       <c r="B18">
-        <v>0.2239407</v>
-      </c>
-      <c r="C18">
         <v>0.0131867176706173</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41882</v>
       </c>
       <c r="B19">
-        <v>0.2309466</v>
-      </c>
-      <c r="C19">
         <v>0.005724051827020737</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41912</v>
       </c>
       <c r="B20">
-        <v>0.2412506999999999</v>
-      </c>
-      <c r="C20">
         <v>0.008370874902290604</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41943</v>
       </c>
       <c r="B21">
-        <v>0.2341845</v>
-      </c>
-      <c r="C21">
         <v>-0.005692806457228916</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41973</v>
       </c>
       <c r="B22">
-        <v>0.2414637000000002</v>
-      </c>
-      <c r="C22">
         <v>0.005897983648311955</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42004</v>
       </c>
       <c r="B23">
-        <v>0.2448403000000001</v>
-      </c>
-      <c r="C23">
         <v>0.002719853991703491</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42035</v>
       </c>
       <c r="B24">
-        <v>0.2552791999999999</v>
-      </c>
-      <c r="C24">
         <v>0.008385734298608227</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42063</v>
       </c>
       <c r="B25">
-        <v>0.2761758000000001</v>
-      </c>
-      <c r="C25">
         <v>0.01664697383657776</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42094</v>
       </c>
       <c r="B26">
-        <v>0.2940353</v>
-      </c>
-      <c r="C26">
         <v>0.01399454526562871</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42124</v>
       </c>
       <c r="B27">
-        <v>0.2969702000000001</v>
-      </c>
-      <c r="C27">
         <v>0.002268021591064873</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42155</v>
       </c>
       <c r="B28">
-        <v>0.3254284000000001</v>
-      </c>
-      <c r="C28">
         <v>0.0219420615832191</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42185</v>
       </c>
       <c r="B29">
-        <v>0.3392837</v>
-      </c>
-      <c r="C29">
         <v>0.0104534503712157</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42216</v>
       </c>
       <c r="B30">
-        <v>0.3684845999999999</v>
-      </c>
-      <c r="C30">
         <v>0.0218033714589374</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42247</v>
       </c>
       <c r="B31">
-        <v>0.3471587</v>
-      </c>
-      <c r="C31">
         <v>-0.01558358786061598</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42277</v>
       </c>
       <c r="B32">
-        <v>0.3816788</v>
-      </c>
-      <c r="C32">
         <v>0.02562437521280891</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42308</v>
       </c>
       <c r="B33">
-        <v>0.3865588</v>
-      </c>
-      <c r="C33">
         <v>0.003531935208096026</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42338</v>
       </c>
       <c r="B34">
-        <v>0.3754431999999999</v>
-      </c>
-      <c r="C34">
         <v>-0.008016681297612571</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42369</v>
       </c>
       <c r="B35">
-        <v>0.3447233999999999</v>
-      </c>
-      <c r="C35">
         <v>-0.0223344737172716</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42400</v>
       </c>
       <c r="B36">
-        <v>0.3572215000000001</v>
-      </c>
-      <c r="C36">
         <v>0.009294179011088977</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42429</v>
       </c>
       <c r="B37">
-        <v>0.3326875</v>
-      </c>
-      <c r="C37">
         <v>-0.01807663671699866</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42460</v>
       </c>
       <c r="B38">
-        <v>0.3838253999999999</v>
-      </c>
-      <c r="C38">
         <v>0.03837201144304259</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42490</v>
       </c>
       <c r="B39">
-        <v>0.4314494</v>
-      </c>
-      <c r="C39">
         <v>0.03441474625339302</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42521</v>
       </c>
       <c r="B40">
-        <v>0.4235872999999999</v>
-      </c>
-      <c r="C40">
         <v>-0.005492405110512522</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42551</v>
       </c>
       <c r="B41">
-        <v>0.4881733000000001</v>
-      </c>
-      <c r="C41">
         <v>0.04536848565592022</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42582</v>
       </c>
       <c r="B42">
-        <v>0.5157963000000001</v>
-      </c>
-      <c r="C42">
         <v>0.0185616822986947</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42613</v>
       </c>
       <c r="B43">
-        <v>0.5376635000000001</v>
-      </c>
-      <c r="C43">
         <v>0.014426212809729</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42643</v>
       </c>
       <c r="B44">
-        <v>0.5858240000000001</v>
-      </c>
-      <c r="C44">
         <v>0.03132057176358805</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42674</v>
       </c>
       <c r="B45">
-        <v>0.6360950999999999</v>
-      </c>
-      <c r="C45">
         <v>0.03170030217729058</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42704</v>
       </c>
       <c r="B46">
-        <v>0.6847432999999998</v>
-      </c>
-      <c r="C46">
         <v>0.02973433512514023</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42735</v>
       </c>
       <c r="B47">
-        <v>0.7224189999999999</v>
-      </c>
-      <c r="C47">
         <v>0.02236287272963189</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42766</v>
       </c>
       <c r="B48">
-        <v>0.7700198</v>
-      </c>
-      <c r="C48">
         <v>0.02763601655578585</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42794</v>
       </c>
       <c r="B49">
-        <v>0.8076944999999998</v>
-      </c>
-      <c r="C49">
         <v>0.02128490314063147</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42825</v>
       </c>
       <c r="B50">
-        <v>0.8315259000000002</v>
-      </c>
-      <c r="C50">
         <v>0.01318331167130316</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42855</v>
       </c>
       <c r="B51">
-        <v>0.8403780000000001</v>
-      </c>
-      <c r="C51">
         <v>0.004833183085207748</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42886</v>
       </c>
       <c r="B52">
-        <v>0.7752009999999998</v>
-      </c>
-      <c r="C52">
         <v>-0.03541500713440404</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42916</v>
       </c>
       <c r="B53">
-        <v>0.7873632000000002</v>
-      </c>
-      <c r="C53">
         <v>0.006851167839585726</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42947</v>
       </c>
       <c r="B54">
-        <v>0.8152804</v>
-      </c>
-      <c r="C54">
         <v>0.01561920934704264</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42978</v>
       </c>
       <c r="B55">
-        <v>0.8323236000000001</v>
-      </c>
-      <c r="C55">
         <v>0.009388742367294922</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43008</v>
       </c>
       <c r="B56">
-        <v>0.9044053999999999</v>
-      </c>
-      <c r="C56">
         <v>0.03933901195181888</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43039</v>
       </c>
       <c r="B57">
-        <v>0.9077588999999999</v>
-      </c>
-      <c r="C57">
         <v>0.001760917082045621</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43069</v>
       </c>
       <c r="B58">
-        <v>0.9124576000000002</v>
-      </c>
-      <c r="C58">
         <v>0.002462942251245881</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43100</v>
       </c>
       <c r="B59">
-        <v>0.923</v>
-      </c>
-      <c r="C59">
         <v>0.005512488224575396</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43131</v>
       </c>
       <c r="B60">
-        <v>0.9646183000000002</v>
-      </c>
-      <c r="C60">
         <v>0.02164238169526778</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43159</v>
       </c>
       <c r="B61">
-        <v>0.9866667</v>
-      </c>
-      <c r="C61">
         <v>0.0112227398065059</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43190</v>
       </c>
       <c r="B62">
-        <v>1.0082735</v>
-      </c>
-      <c r="C62">
         <v>0.01087590585778675</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43220</v>
       </c>
       <c r="B63">
-        <v>1.0155038</v>
-      </c>
-      <c r="C63">
         <v>0.003600256638351507</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43251</v>
       </c>
       <c r="B64">
-        <v>1.0549824</v>
-      </c>
-      <c r="C64">
         <v>0.01958745996906575</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43281</v>
       </c>
       <c r="B65">
-        <v>1.1452944</v>
-      </c>
-      <c r="C65">
         <v>0.04394782164557709</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43312</v>
       </c>
       <c r="B66">
-        <v>1.1254725</v>
-      </c>
-      <c r="C66">
         <v>-0.009239710876045804</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43343</v>
       </c>
       <c r="B67">
-        <v>1.1509397</v>
-      </c>
-      <c r="C67">
         <v>0.01198190049506631</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43373</v>
       </c>
       <c r="B68">
-        <v>1.1368635</v>
-      </c>
-      <c r="C68">
         <v>-0.006544209491321284</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43404</v>
       </c>
       <c r="B69">
-        <v>1.2121073</v>
-      </c>
-      <c r="C69">
         <v>0.03521226320726623</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43434</v>
       </c>
       <c r="B70">
-        <v>1.1975763</v>
-      </c>
-      <c r="C70">
         <v>-0.006568849530942722</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43465</v>
       </c>
       <c r="B71">
-        <v>1.2261702</v>
-      </c>
-      <c r="C71">
         <v>0.01301156187386976</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43496</v>
       </c>
       <c r="B72">
-        <v>1.2635237</v>
-      </c>
-      <c r="C72">
         <v>0.01677926512537087</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43524</v>
       </c>
       <c r="B73">
-        <v>1.231921</v>
-      </c>
-      <c r="C73">
         <v>-0.01396172701880682</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43555</v>
       </c>
       <c r="B74">
-        <v>1.2475069</v>
-      </c>
-      <c r="C74">
         <v>0.006983177271955521</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43585</v>
       </c>
       <c r="B75">
-        <v>1.2594531</v>
-      </c>
-      <c r="C75">
         <v>0.005315311823959057</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43616</v>
       </c>
       <c r="B76">
-        <v>1.2764423</v>
-      </c>
-      <c r="C76">
         <v>0.007519164704060666</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43646</v>
       </c>
       <c r="B77">
-        <v>1.346788</v>
-      </c>
-      <c r="C77">
         <v>0.03090159588055452</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43677</v>
       </c>
       <c r="B78">
-        <v>1.3634701</v>
-      </c>
-      <c r="C78">
         <v>0.007108481890993001</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43708</v>
       </c>
       <c r="B79">
-        <v>1.4090935</v>
-      </c>
-      <c r="C79">
         <v>0.01930356554965518</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43738</v>
       </c>
       <c r="B80">
-        <v>1.399852</v>
-      </c>
-      <c r="C80">
         <v>-0.003836090214016097</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43769</v>
       </c>
       <c r="B81">
-        <v>1.4438266</v>
-      </c>
-      <c r="C81">
         <v>0.01832387997259821</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43799</v>
       </c>
       <c r="B82">
-        <v>1.485205</v>
-      </c>
-      <c r="C82">
         <v>0.01693180686387485</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43830</v>
       </c>
       <c r="B83">
-        <v>1.5540732</v>
-      </c>
-      <c r="C83">
         <v>0.0277112753273876</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43861</v>
       </c>
       <c r="B84">
-        <v>1.5730868</v>
-      </c>
-      <c r="C84">
         <v>0.007444422501281522</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43890</v>
       </c>
       <c r="B85">
-        <v>1.6066455</v>
-      </c>
-      <c r="C85">
         <v>0.0130421950786892</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43921</v>
       </c>
       <c r="B86">
-        <v>1.8590546</v>
-      </c>
-      <c r="C86">
         <v>0.09683292185300996</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43951</v>
       </c>
       <c r="B87">
-        <v>1.9029586</v>
-      </c>
-      <c r="C87">
         <v>0.01535612506315887</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43982</v>
       </c>
       <c r="B88">
-        <v>1.90265</v>
-      </c>
-      <c r="C88">
         <v>-0.0001063053396627156</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>44012</v>
       </c>
       <c r="B89">
-        <v>1.9627069</v>
-      </c>
-      <c r="C89">
         <v>0.02069036914543587</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>44043</v>
       </c>
       <c r="B90">
-        <v>1.981116</v>
-      </c>
-      <c r="C90">
         <v>0.006213608237791046</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>44074</v>
       </c>
       <c r="B91">
-        <v>2.0248717</v>
-      </c>
-      <c r="C91">
         <v>0.0146776240844031</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>44104</v>
       </c>
       <c r="B92">
-        <v>1.9896677</v>
-      </c>
-      <c r="C92">
         <v>-0.01163817956311997</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>44135</v>
       </c>
       <c r="B93">
-        <v>2.0056588</v>
-      </c>
-      <c r="C93">
         <v>0.005348788428894524</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>44165</v>
       </c>
       <c r="B94">
-        <v>1.9923276</v>
-      </c>
-      <c r="C94">
-        <v>-0.004435367048315597</v>
+        <v>-0.004475657716038861</v>
       </c>
     </row>
   </sheetData>
